--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value979.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value979.xlsx
@@ -348,13 +348,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.063648189108566</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value979.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value979.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>15</v>
+        <v>0.6410857439041138</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.9297026991844177</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.098338007926941</v>
       </c>
       <c r="D1">
-        <v>1.063648189108566</v>
+        <v>3.91424822807312</v>
       </c>
       <c r="E1">
-        <v>0.6873474494069027</v>
+        <v>2.327521085739136</v>
       </c>
     </row>
   </sheetData>
